--- a/character/character_encoding.xlsx
+++ b/character/character_encoding.xlsx
@@ -2,26 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="基础知识" sheetId="5" r:id="rId1"/>
     <sheet name="ASCII字符集" sheetId="6" r:id="rId2"/>
     <sheet name="GB2312字符集" sheetId="7" r:id="rId3"/>
-    <sheet name="BIG5字符集" sheetId="8" r:id="rId4"/>
-    <sheet name="GB18030字符集" sheetId="9" r:id="rId5"/>
+    <sheet name="GB18030字符集" sheetId="9" r:id="rId4"/>
+    <sheet name="BIG5字符集" sheetId="8" r:id="rId5"/>
     <sheet name="Unicode字符集" sheetId="10" r:id="rId6"/>
-    <sheet name="UTF-8" sheetId="1" r:id="rId7"/>
-    <sheet name="拉丁文" sheetId="4" r:id="rId8"/>
+    <sheet name="UTF-32" sheetId="11" r:id="rId7"/>
+    <sheet name="UTF-16" sheetId="12" r:id="rId8"/>
+    <sheet name="UTF-8" sheetId="1" r:id="rId9"/>
+    <sheet name="拉丁文" sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>UTF-8使用一至四个字节为每个字符编码：</t>
   </si>
@@ -127,10 +129,6 @@
   </si>
   <si>
     <t>GB18030字符集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unicode字符集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -233,12 +231,145 @@
   <si>
     <t>2003年，Big5被收录到CNS11643中文标准交换码的附录当中，取得了较正式的地位。这个最新版本被称为Big5-2003。</t>
   </si>
+  <si>
+    <t>Big5码是一套双字节字符集，使用了双八码存储方法，以两个字节来安放一个字。</t>
+  </si>
+  <si>
+    <t>第一个字节称为"高位字节"，第二个字节称为"低位字节"。</t>
+  </si>
+  <si>
+    <t>高位字节使用了0x81-0xFE，"低位字节"使用了0x40-0x7E，及0xA1-0xFE。在Big5的分区中：</t>
+  </si>
+  <si>
+    <t>Unicode字符集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是业界的一种标准，它可以使电脑得以体现世界上数十种文字的系统。</t>
+  </si>
+  <si>
+    <t>Unicode 是基于通用字符集（Universal Character Set）的标准来发展，并且同时也以书本的形式[1]对外发表。</t>
+  </si>
+  <si>
+    <t>Unicode 还不断在扩增， 每个新版本插入更多新的字符。直至目前为止的第六版，</t>
+  </si>
+  <si>
+    <t>Unicode 就已经包含了超过十万个字符（在2005年，Unicode 的第十万个字符被采纳且认可成为标准之一）、一组可用以作为视觉参考的代码图表、一套编码方法与一组标准字符编码、一套包含了上标字、下标字等字符特性的枚举等。</t>
+  </si>
+  <si>
+    <t>Unicode 组织（The Unicode Consortium）是由一个非营利性的机构所运作，并主导 Unicode 的后续发展，其目标在于：将既有的字符编码方案以Unicode 编码方案来加以取代，特别是既有的方案在多语环境下，皆仅有有限的空间以及不兼容的问题。</t>
+  </si>
+  <si>
+    <r>
+      <t>Unicode</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（统一码、万国码、单一码、标准万国码）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用字符集（Universal Character Set，UCS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是由ISO制定的ISO 10646（或称ISO/IEC 10646）标准所定义的标准字符集。</t>
+  </si>
+  <si>
+    <t>历史上存在两个独立的尝试创立单一字符集的组织，即国际标准化组织（ISO）和多语言软件制造商组成的统一码联盟。</t>
+  </si>
+  <si>
+    <t>前者开发的 ISO/IEC 10646 项目，后者开发的统一码项目。因此最初制定了不同的标准。</t>
+  </si>
+  <si>
+    <t>1991年前后，两个项目的参与者都认识到，世界不需要两个不兼容的字符集。</t>
+  </si>
+  <si>
+    <t>于是，它们开始合并双方的工作成果，并为创立一个单一编码表而协同工作。</t>
+  </si>
+  <si>
+    <t>从Unicode 2.0开始，Unicode采用了与ISO 10646-1相同的字库和字码；ISO也承诺，ISO 10646将不会替超出U+10FFFF的UCS-4编码赋值，以使得两者保持一致。</t>
+  </si>
+  <si>
+    <t>两个项目仍都存在，并独立地公布各自的标准。但统一码联盟和ISO/IEC JTC1/SC2都同意保持两者标准的码表兼容，并紧密地共同调整任何未来的扩展。</t>
+  </si>
+  <si>
+    <t>在发布的时候，Unicode一般都会采用有关字码最常见的字型，但ISO 10646一般都尽可能采用Century字型。</t>
+  </si>
+  <si>
+    <t>※可以这样理解：Unicode是字符集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是三种字符编码方案。</t>
+  </si>
+  <si>
+    <t>UTF-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTF-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTF-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTF-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是一种用于编码Unicode的协定，该协定使用32位比特对每个Unicode码位进行编码（但前导比特数必须为零，故仅能表示221个Unicode码位）。</t>
+  </si>
+  <si>
+    <t>与其他可变长度的Unicode转换格式（UTF）相比，UTF-32编码长度是固定的，UTF-32中的每个32位值代表一个Unicode码位，并且与该码位的数值完全一致。</t>
+  </si>
+  <si>
+    <t>UTF-32的主要优点是可以直接由Unicode码位来索引。在编码序列中查找第N个编码是一个常数时间操作。</t>
+  </si>
+  <si>
+    <t>相比之下，其他可变长度编码需要进行循序访问操作才能在编码序列中找到第N个编码。</t>
+  </si>
+  <si>
+    <t>这使得在计算机程序设计中，编码序列中的字符位置可以用一个整数来表示，整数加一即可得到下一个字符的位置，就和ASCII字符串一样简单。</t>
+  </si>
+  <si>
+    <t>UTF-32的主要缺点是每个码位使用四个字节，空间浪费较多。</t>
+  </si>
+  <si>
+    <t>在大多数文本中，非基本多文种平面的字符非常罕见，这使得UTF-32所需空间接近UTF-16的两倍和UTF-8的四倍（具体取决于文本中ASCII字符的比例）。</t>
+  </si>
+  <si>
+    <t>尽管每一个码位使用固定长度的字节看似方便，但UTF-32并不如其它Unicode编码使用广泛。</t>
+  </si>
+  <si>
+    <t>与UTF-8及UTF-16相比，UTF-32更容易遭到截断。即使使用了"定宽"字体，在大多数情况下用UTF-32计算显示字符串的宽度也并不比其他编码更加容易。</t>
+  </si>
+  <si>
+    <t>主要原因是，存在着一个字符位置会有多于一种可能的码点（结合字符）或一个码点用多于一个字符位置（如CJK表意字符）。</t>
+  </si>
+  <si>
+    <t>结合符号也意味着，文书编辑者不能将一个码位视同一个编辑上的单位。</t>
+  </si>
+  <si>
+    <t>UTF-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +440,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -342,7 +490,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,6 +513,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,6 +695,262 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1000125" y="2228850"/>
+          <a:ext cx="6257925" cy="4457700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="组合 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="676274" y="2667000"/>
+          <a:ext cx="7543801" cy="2800350"/>
+          <a:chOff x="676274" y="1981200"/>
+          <a:chExt cx="7543801" cy="2800350"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="椭圆 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="676274" y="1981200"/>
+            <a:ext cx="7543801" cy="2800350"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>Unicode</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="椭圆 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3371850" y="2124075"/>
+            <a:ext cx="2552700" cy="942975"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent3">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent3"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent3"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>UTF-32</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="椭圆 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1581150" y="3467100"/>
+            <a:ext cx="2552700" cy="942975"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent4">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>UTF-16</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="椭圆 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5038725" y="3257550"/>
+            <a:ext cx="2552700" cy="942975"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>UTF-8</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -834,10 +1241,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="C3:D27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -850,7 +1258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="14.25">
+    <row r="5" spans="3:4">
       <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
@@ -916,7 +1324,7 @@
     </row>
     <row r="22" spans="3:4">
       <c r="D22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="3:4">
@@ -926,7 +1334,7 @@
     </row>
     <row r="24" spans="3:4">
       <c r="D24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="3:4">
@@ -935,8 +1343,8 @@
       </c>
     </row>
     <row r="26" spans="3:4">
-      <c r="D26" t="s">
-        <v>33</v>
+      <c r="D26" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="3:4">
@@ -949,17 +1357,35 @@
   <hyperlinks>
     <hyperlink ref="D22" location="ASCII字符集!A1" display="ASCII字符集"/>
     <hyperlink ref="D24" location="BIG5字符集!A1" display="BIG5字符集"/>
+    <hyperlink ref="D26" location="Unicode字符集!A1" display="Unicode字符集"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:D59"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -969,22 +1395,22 @@
         <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="3:4" s="2" customFormat="1">
@@ -997,7 +1423,7 @@
     </row>
     <row r="11" spans="3:4" ht="14.25">
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="3:4" s="2" customFormat="1">
@@ -1005,42 +1431,42 @@
         <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1052,6 +1478,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1067,50 +1494,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:D8"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="3" spans="3:4" s="2" customFormat="1">
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1124,23 +1508,309 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="C3:D12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="3:4" s="2" customFormat="1">
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="C3:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="3:10" s="2" customFormat="1">
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10">
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="D11" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="D12" s="8"/>
+      <c r="J12" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="D13" s="8"/>
+      <c r="J13" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="D14" s="8"/>
+      <c r="J14" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="D15" s="8"/>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" s="2" customFormat="1">
+      <c r="C35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J12" location="'UTF-32'!A1" display="UTF-32"/>
+    <hyperlink ref="J13" location="'UTF-16'!A1" display="UTF-16"/>
+    <hyperlink ref="J14" location="'UTF-8'!A1" display="UTF-8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="C3:D18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="3:4" s="2" customFormat="1">
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="D12" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="D13" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="C3:D3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH22" sqref="AH22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="3:4" s="2" customFormat="1">
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="D7:D28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1239,19 +1909,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/character/character_encoding.xlsx
+++ b/character/character_encoding.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
   <si>
     <t>UTF-8使用一至四个字节为每个字符编码：</t>
   </si>
@@ -363,6 +363,21 @@
   <si>
     <t>UTF-16</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是Unicode字符编码五层次模型的第三层：字符编码表（Character Encoding Form，也称为"storage format"）的一种实现方式。</t>
+  </si>
+  <si>
+    <t>即把Unicode字符集的抽象码位映射为16位长的整数（即码元）的序列，用于数据存储或传递。</t>
+  </si>
+  <si>
+    <t>Unicode字符的码位，需要1个或者2个16位长的码元来表示，因此这是一个变长表示。</t>
+  </si>
+  <si>
+    <t>UTF是"Unicode/UCS Transformation Format"的首字母缩写，即把Unicode字符转换为某种格式之意。</t>
+  </si>
+  <si>
+    <t>UTF-16正式定义于ISO/IEC 10646-1的附录C，而RFC2781也定义了相似的做法。</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1399,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="C3:D59"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="K16" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1513,7 +1528,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C3:D12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1576,7 +1591,7 @@
   <dimension ref="C3:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D37" sqref="D37:BC45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -1709,7 +1724,7 @@
   <dimension ref="C3:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -1786,10 +1801,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="C3:D3"/>
+  <dimension ref="C3:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -1800,6 +1815,31 @@
       </c>
       <c r="D3" s="4" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="D10" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
